--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_6_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_6_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2631190.335120237</v>
+        <v>2630463.736249012</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5851605.615330304</v>
+        <v>5851605.615330298</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>864456.6793124476</v>
+        <v>864456.679312448</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6947639.138442777</v>
+        <v>6947639.138442776</v>
       </c>
     </row>
     <row r="11">
@@ -664,22 +664,22 @@
         <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>121.6153316166635</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>76.2864558254776</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -746,19 +746,19 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E3" t="n">
-        <v>119.2878878475953</v>
+        <v>55.04634263617562</v>
       </c>
       <c r="F3" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -797,13 +797,13 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W3" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X3" t="n">
-        <v>123.4444612480484</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y3" t="n">
         <v>157.8079400398083</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>153.0251390105129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>202.6990067300867</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -898,19 +898,19 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
-        <v>284.7739237320263</v>
+        <v>121.8133615497955</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1056,25 +1056,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>82.03054773111313</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751802</v>
       </c>
       <c r="U7" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.11896786784456</v>
+        <v>34.01106231759479</v>
       </c>
       <c r="C8" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>282.2353383822506</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
         <v>4.641001266096112</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1296,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
         <v>165.577887163712</v>
@@ -1311,7 +1311,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>14.21513640714158</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>220.5969717298087</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>376.6200261415065</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C11" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D11" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815315</v>
       </c>
       <c r="E11" t="n">
-        <v>380.6978716019342</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F11" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G11" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H11" t="n">
-        <v>278.3004706722211</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I11" t="n">
-        <v>55.98930332975954</v>
+        <v>55.98930332975964</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T11" t="n">
-        <v>190.4854774862717</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U11" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V11" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W11" t="n">
-        <v>350.4237561298451</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X11" t="n">
-        <v>367.1380221263989</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y11" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="12">
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D13" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>129.8027652540257</v>
+        <v>79.92477120997266</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G13" t="n">
-        <v>124.2317421012258</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>85.68364371037917</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.92104941501631</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>155.0289087125508</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T13" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>250.4712242529991</v>
       </c>
       <c r="V13" t="n">
-        <v>241.6479458835352</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>246.7800261198763</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X13" t="n">
-        <v>206.4614817925754</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>376.6200261415065</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C14" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D14" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E14" t="n">
-        <v>380.6978716019342</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F14" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G14" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H14" t="n">
-        <v>278.3004706722222</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I14" t="n">
-        <v>55.98930332975954</v>
+        <v>55.98930332975884</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T14" t="n">
-        <v>190.4854774862717</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U14" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V14" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W14" t="n">
-        <v>350.4237561298451</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X14" t="n">
-        <v>367.1380221263989</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y14" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="15">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D16" t="n">
         <v>128.4007565039811</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>131.8990426936967</v>
       </c>
       <c r="H16" t="n">
-        <v>61.04510745646664</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>85.68364371037917</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.92104941501631</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>155.0289087125508</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T16" t="n">
-        <v>207.6543099067269</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U16" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>241.6479458835352</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W16" t="n">
-        <v>246.7800261198763</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X16" t="n">
-        <v>206.4614817925754</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>376.6200261415065</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C17" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D17" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E17" t="n">
-        <v>380.6978716019342</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F17" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G17" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H17" t="n">
-        <v>278.3004706722211</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I17" t="n">
-        <v>55.98930332975954</v>
+        <v>55.98930332975964</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T17" t="n">
-        <v>190.4854774862717</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U17" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V17" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W17" t="n">
-        <v>350.4237561298451</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X17" t="n">
-        <v>367.1380221263989</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y17" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="18">
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>88.04314577169667</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>70.83342504418783</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>54.92104941501631</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>155.0289087125508</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T19" t="n">
-        <v>207.6543099067269</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U19" t="n">
         <v>250.4712242529991</v>
       </c>
       <c r="V19" t="n">
-        <v>241.6479458835352</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W19" t="n">
-        <v>246.7800261198763</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X19" t="n">
-        <v>206.4614817925754</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y19" t="n">
-        <v>192.9893998987849</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>376.6200261415065</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C20" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D20" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E20" t="n">
-        <v>380.6978716019342</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F20" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G20" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H20" t="n">
-        <v>278.3004706722211</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I20" t="n">
-        <v>55.98930332975954</v>
+        <v>55.98930332975966</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T20" t="n">
-        <v>190.4854774862717</v>
+        <v>190.4854774862719</v>
       </c>
       <c r="U20" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V20" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W20" t="n">
-        <v>350.4237561298451</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X20" t="n">
-        <v>367.1380221264004</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y20" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="21">
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C22" t="n">
-        <v>139.8834969875626</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>133.4858729041766</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G22" t="n">
-        <v>136.078945437374</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H22" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>13.77525589014706</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>181.1615460494234</v>
       </c>
       <c r="U22" t="n">
-        <v>250.4712242529991</v>
+        <v>250.4712242529992</v>
       </c>
       <c r="V22" t="n">
-        <v>241.6479458835352</v>
+        <v>241.6479458835354</v>
       </c>
       <c r="W22" t="n">
-        <v>246.7800261198763</v>
+        <v>246.7800261198765</v>
       </c>
       <c r="X22" t="n">
-        <v>206.4614817925754</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="23">
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>376.6200261415065</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C23" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D23" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E23" t="n">
-        <v>380.6978716019342</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F23" t="n">
-        <v>387.3211661995123</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G23" t="n">
         <v>375.1420595397581</v>
       </c>
       <c r="H23" t="n">
-        <v>278.3004706722211</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I23" t="n">
-        <v>55.98930332975954</v>
+        <v>55.98930332975958</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T23" t="n">
-        <v>190.4854774862717</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U23" t="n">
         <v>224.990945096747</v>
@@ -2383,7 +2383,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X23" t="n">
-        <v>367.1380221263989</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y23" t="n">
         <v>367.4283645950528</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C25" t="n">
-        <v>139.8834969875626</v>
+        <v>88.0431457716974</v>
       </c>
       <c r="D25" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>133.4858729041766</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>85.68364371037907</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>54.92104941501631</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T25" t="n">
-        <v>139.0522734561507</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U25" t="n">
         <v>250.4712242529991</v>
       </c>
       <c r="V25" t="n">
-        <v>241.6479458835352</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W25" t="n">
-        <v>246.7800261198763</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X25" t="n">
-        <v>206.4614817925754</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275031</v>
       </c>
       <c r="T26" t="n">
         <v>190.4854774862718</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C28" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E28" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>133.4858729041767</v>
@@ -2733,7 +2733,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>35.80564966632652</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S28" t="n">
         <v>155.0289087125508</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U28" t="n">
         <v>250.4712242529991</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W28" t="n">
-        <v>246.7800261198764</v>
+        <v>77.09134669574716</v>
       </c>
       <c r="X28" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275031</v>
       </c>
       <c r="T29" t="n">
         <v>190.4854774862718</v>
@@ -2857,7 +2857,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X29" t="n">
-        <v>367.1380221263995</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y29" t="n">
         <v>367.4283645950528</v>
@@ -2952,7 +2952,7 @@
         <v>156.323767603766</v>
       </c>
       <c r="C31" t="n">
-        <v>98.24720125821807</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I31" t="n">
-        <v>85.68364371037912</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.92104941501636</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>207.6543099067269</v>
+        <v>56.15148304977843</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V31" t="n">
         <v>241.6479458835353</v>
@@ -3034,22 +3034,22 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D32" t="n">
-        <v>370.9203488815321</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E32" t="n">
         <v>380.6978716019343</v>
       </c>
       <c r="F32" t="n">
-        <v>387.3211661995114</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G32" t="n">
-        <v>375.1420595397582</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H32" t="n">
-        <v>278.3004706722213</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I32" t="n">
-        <v>55.98930332975964</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>190.4854774862718</v>
       </c>
       <c r="U32" t="n">
-        <v>224.9909450967471</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V32" t="n">
-        <v>316.8402373905462</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W32" t="n">
-        <v>350.4237561298452</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X32" t="n">
-        <v>367.1380221263991</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y32" t="n">
-        <v>367.4283645950529</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="33">
@@ -3192,10 +3192,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>129.8027652540258</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>33.12209635668106</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T34" t="n">
-        <v>207.654309906727</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U34" t="n">
         <v>250.4712242529991</v>
@@ -3255,7 +3255,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y34" t="n">
-        <v>177.8579326250256</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="35">
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C35" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D35" t="n">
-        <v>370.9203488815327</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E35" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F35" t="n">
         <v>387.3211661995113</v>
@@ -3283,10 +3283,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H35" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I35" t="n">
-        <v>55.98930332975958</v>
+        <v>55.98930332975954</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T35" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U35" t="n">
         <v>224.990945096747</v>
@@ -3331,7 +3331,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X35" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y35" t="n">
         <v>367.4283645950528</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>156.323767603766</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C37" t="n">
-        <v>139.8834969875627</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D37" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>85.68364371037912</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>155.0289087125508</v>
+        <v>103.1885574966861</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U37" t="n">
-        <v>162.6487322210759</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X37" t="n">
-        <v>206.4614817925755</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y37" t="n">
         <v>192.9893998987849</v>
@@ -3508,22 +3508,22 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D38" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E38" t="n">
         <v>380.6978716019343</v>
       </c>
       <c r="F38" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G38" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H38" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I38" t="n">
-        <v>55.98930332975958</v>
+        <v>55.98930332975884</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,19 +3559,19 @@
         <v>190.4854774862718</v>
       </c>
       <c r="U38" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V38" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W38" t="n">
-        <v>350.4237561298451</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X38" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y38" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="39">
@@ -3666,22 +3666,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>129.8027652540257</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F40" t="n">
         <v>133.4858729041767</v>
       </c>
       <c r="G40" t="n">
-        <v>136.078945437374</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H40" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>85.68364371037912</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>54.92104941501636</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T40" t="n">
-        <v>207.6543099067269</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U40" t="n">
         <v>250.4712242529991</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W40" t="n">
-        <v>150.9760361390227</v>
+        <v>128.4449881947814</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y40" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3757,10 +3757,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>261.952250356226</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3805,7 +3805,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -3900,25 +3900,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>142.1647805527598</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>27.35334490128935</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3982,7 +3982,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
@@ -3997,7 +3997,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V44" t="n">
-        <v>304.2743438296833</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>65.20688881505556</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>967.0843695122696</v>
+        <v>1309.796993444622</v>
       </c>
       <c r="C2" t="n">
-        <v>961.0001828659438</v>
+        <v>1303.712806798296</v>
       </c>
       <c r="D2" t="n">
-        <v>960.5766569994083</v>
+        <v>899.2488768913568</v>
       </c>
       <c r="E2" t="n">
-        <v>950.2768455567091</v>
+        <v>484.9086614082535</v>
       </c>
       <c r="F2" t="n">
-        <v>529.2464335103966</v>
+        <v>467.9186534023451</v>
       </c>
       <c r="G2" t="n">
-        <v>120.5181494032288</v>
+        <v>345.0748840925839</v>
       </c>
       <c r="H2" t="n">
-        <v>120.5181494032288</v>
+        <v>34.16638672030194</v>
       </c>
       <c r="I2" t="n">
-        <v>34.16638672030192</v>
+        <v>34.16638672030194</v>
       </c>
       <c r="J2" t="n">
-        <v>34.16638672030192</v>
+        <v>288.3518581880562</v>
       </c>
       <c r="K2" t="n">
-        <v>118.7312222285951</v>
+        <v>711.1608938517927</v>
       </c>
       <c r="L2" t="n">
-        <v>118.7312222285951</v>
+        <v>923.7926478665033</v>
       </c>
       <c r="M2" t="n">
-        <v>541.5402578923313</v>
+        <v>923.7926478665033</v>
       </c>
       <c r="N2" t="n">
-        <v>964.3492935560676</v>
+        <v>923.7926478665033</v>
       </c>
       <c r="O2" t="n">
-        <v>1387.158329219804</v>
+        <v>923.7926478665033</v>
       </c>
       <c r="P2" t="n">
-        <v>1387.158329219804</v>
+        <v>1346.60168353024</v>
       </c>
       <c r="Q2" t="n">
-        <v>1708.319336015096</v>
+        <v>1667.762690325532</v>
       </c>
       <c r="R2" t="n">
-        <v>1708.319336015096</v>
+        <v>1708.319336015097</v>
       </c>
       <c r="S2" t="n">
-        <v>1708.319336015096</v>
+        <v>1573.038260809197</v>
       </c>
       <c r="T2" t="n">
-        <v>1708.319336015096</v>
+        <v>1573.038260809197</v>
       </c>
       <c r="U2" t="n">
-        <v>1451.258844274606</v>
+        <v>1315.977769068708</v>
       </c>
       <c r="V2" t="n">
-        <v>1374.201818188265</v>
+        <v>1315.977769068708</v>
       </c>
       <c r="W2" t="n">
-        <v>1374.201818188265</v>
+        <v>1315.977769068708</v>
       </c>
       <c r="X2" t="n">
-        <v>1374.201818188265</v>
+        <v>1315.977769068708</v>
       </c>
       <c r="Y2" t="n">
-        <v>973.265145136355</v>
+        <v>1315.977769068708</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>606.007115921175</v>
+        <v>340.6609820511311</v>
       </c>
       <c r="C3" t="n">
-        <v>472.0120446701208</v>
+        <v>206.6659108000768</v>
       </c>
       <c r="D3" t="n">
-        <v>355.1148868895132</v>
+        <v>89.76875301946923</v>
       </c>
       <c r="E3" t="n">
-        <v>234.6220708818411</v>
+        <v>34.16638672030194</v>
       </c>
       <c r="F3" t="n">
-        <v>125.6621910643457</v>
+        <v>34.16638672030194</v>
       </c>
       <c r="G3" t="n">
-        <v>125.6621910643457</v>
+        <v>34.16638672030194</v>
       </c>
       <c r="H3" t="n">
-        <v>54.91497810006175</v>
+        <v>34.16638672030194</v>
       </c>
       <c r="I3" t="n">
-        <v>34.16638672030192</v>
+        <v>34.16638672030194</v>
       </c>
       <c r="J3" t="n">
         <v>226.9792442829352</v>
       </c>
       <c r="K3" t="n">
-        <v>649.7882799466713</v>
+        <v>226.9792442829352</v>
       </c>
       <c r="L3" t="n">
-        <v>1072.597315610408</v>
+        <v>649.7882799466717</v>
       </c>
       <c r="M3" t="n">
-        <v>1495.406351274144</v>
+        <v>862.7012646876237</v>
       </c>
       <c r="N3" t="n">
-        <v>1678.759816652466</v>
+        <v>862.7012646876237</v>
       </c>
       <c r="O3" t="n">
-        <v>1678.759816652466</v>
+        <v>1285.51030035136</v>
       </c>
       <c r="P3" t="n">
-        <v>1678.759816652466</v>
+        <v>1708.319336015097</v>
       </c>
       <c r="Q3" t="n">
-        <v>1678.759816652466</v>
+        <v>1708.319336015097</v>
       </c>
       <c r="R3" t="n">
-        <v>1708.319336015096</v>
+        <v>1708.319336015097</v>
       </c>
       <c r="S3" t="n">
         <v>1600.329326129405</v>
       </c>
       <c r="T3" t="n">
-        <v>1440.987462316413</v>
+        <v>1440.987462316414</v>
       </c>
       <c r="U3" t="n">
-        <v>1243.636651454631</v>
+        <v>1243.636651454632</v>
       </c>
       <c r="V3" t="n">
-        <v>1243.636651454631</v>
+        <v>1029.925124447666</v>
       </c>
       <c r="W3" t="n">
-        <v>1030.40348319096</v>
+        <v>816.6919561839949</v>
       </c>
       <c r="X3" t="n">
-        <v>905.7121081929316</v>
+        <v>640.3659743228877</v>
       </c>
       <c r="Y3" t="n">
-        <v>746.3101485567616</v>
+        <v>480.9640146867177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>809.2616559374864</v>
+        <v>205.2597591585854</v>
       </c>
       <c r="C4" t="n">
-        <v>638.1682834992029</v>
+        <v>34.16638672030194</v>
       </c>
       <c r="D4" t="n">
-        <v>478.6736388221129</v>
+        <v>34.16638672030194</v>
       </c>
       <c r="E4" t="n">
-        <v>317.7628236904324</v>
+        <v>34.16638672030194</v>
       </c>
       <c r="F4" t="n">
-        <v>317.7628236904324</v>
+        <v>34.16638672030194</v>
       </c>
       <c r="G4" t="n">
-        <v>150.5124326159758</v>
+        <v>34.16638672030194</v>
       </c>
       <c r="H4" t="n">
-        <v>150.5124326159758</v>
+        <v>34.16638672030194</v>
       </c>
       <c r="I4" t="n">
-        <v>34.16638672030192</v>
+        <v>34.16638672030194</v>
       </c>
       <c r="J4" t="n">
-        <v>48.24893612551244</v>
+        <v>48.24893612551246</v>
       </c>
       <c r="K4" t="n">
         <v>202.8012638477504</v>
@@ -4512,28 +4512,28 @@
         <v>1563.565283341152</v>
       </c>
       <c r="R4" t="n">
-        <v>1478.292565016552</v>
+        <v>1563.565283341152</v>
       </c>
       <c r="S4" t="n">
-        <v>1478.292565016552</v>
+        <v>1563.565283341152</v>
       </c>
       <c r="T4" t="n">
-        <v>1238.743825993254</v>
+        <v>1563.565283341152</v>
       </c>
       <c r="U4" t="n">
-        <v>1238.743825993254</v>
+        <v>1408.994435855785</v>
       </c>
       <c r="V4" t="n">
-        <v>1238.743825993254</v>
+        <v>1135.108690795307</v>
       </c>
       <c r="W4" t="n">
-        <v>1033.997354548722</v>
+        <v>856.0390263041818</v>
       </c>
       <c r="X4" t="n">
-        <v>1033.997354548722</v>
+        <v>617.6951641638651</v>
       </c>
       <c r="Y4" t="n">
-        <v>809.2616559374864</v>
+        <v>392.9594655526298</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1563.032129785286</v>
+        <v>590.3446932375783</v>
       </c>
       <c r="C5" t="n">
-        <v>1152.907539098556</v>
+        <v>584.2605065912525</v>
       </c>
       <c r="D5" t="n">
-        <v>1152.484013232021</v>
+        <v>179.796576684313</v>
       </c>
       <c r="E5" t="n">
-        <v>738.1437977489177</v>
+        <v>169.4967652416138</v>
       </c>
       <c r="F5" t="n">
-        <v>450.4933697367699</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G5" t="n">
         <v>41.76508562960205</v>
@@ -4576,19 +4576,19 @@
         <v>1329.636426430007</v>
       </c>
       <c r="M5" t="n">
-        <v>1846.479361096332</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N5" t="n">
-        <v>1846.479361096332</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O5" t="n">
-        <v>1846.479361096332</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P5" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
@@ -4597,22 +4597,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>1952.973206274203</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U5" t="n">
-        <v>1952.973206274203</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V5" t="n">
-        <v>1952.973206274203</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="W5" t="n">
-        <v>1569.212905409372</v>
+        <v>997.1688666927112</v>
       </c>
       <c r="X5" t="n">
-        <v>1569.212905409372</v>
+        <v>596.5254688616637</v>
       </c>
       <c r="Y5" t="n">
-        <v>1569.212905409372</v>
+        <v>596.5254688616637</v>
       </c>
     </row>
     <row r="6">
@@ -4649,25 +4649,25 @@
         <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>675.1644281008383</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>1192.007362767164</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M6" t="n">
-        <v>1192.007362767164</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="N6" t="n">
-        <v>1192.007362767164</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="O6" t="n">
-        <v>1192.007362767164</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="P6" t="n">
-        <v>1708.850297433489</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q6" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>738.8086788374425</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C7" t="n">
-        <v>567.715306399159</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D7" t="n">
-        <v>408.220661722069</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
-        <v>408.220661722069</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
-        <v>325.3615225997325</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1246.342524902554</v>
+        <v>1340.598203386633</v>
       </c>
       <c r="U7" t="n">
-        <v>963.5443774486778</v>
+        <v>1057.800055932758</v>
       </c>
       <c r="V7" t="n">
-        <v>963.5443774486778</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="W7" t="n">
-        <v>963.5443774486778</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X7" t="n">
-        <v>963.5443774486778</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y7" t="n">
-        <v>738.8086788374425</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>665.9453839735293</v>
+        <v>1696.412113819451</v>
       </c>
       <c r="C8" t="n">
-        <v>659.8611973272034</v>
+        <v>1286.287523132721</v>
       </c>
       <c r="D8" t="n">
-        <v>659.437671460668</v>
+        <v>881.8235932257816</v>
       </c>
       <c r="E8" t="n">
-        <v>374.3514710745562</v>
+        <v>467.4833777426783</v>
       </c>
       <c r="F8" t="n">
-        <v>357.3614630686478</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G8" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H8" t="n">
         <v>41.76508562960205</v>
@@ -4804,28 +4804,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L8" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M8" t="n">
-        <v>1075.450954962253</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N8" t="n">
-        <v>1571.411346813777</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O8" t="n">
-        <v>2088.254281480102</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P8" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q8" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
@@ -4837,19 +4837,19 @@
         <v>1730.766722221062</v>
       </c>
       <c r="U8" t="n">
-        <v>1473.706230480572</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V8" t="n">
-        <v>1473.706230480572</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W8" t="n">
-        <v>1473.706230480572</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="X8" t="n">
-        <v>1073.062832649525</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="Y8" t="n">
-        <v>672.1261595976147</v>
+        <v>1730.766722221062</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K9" t="n">
-        <v>690.384199457534</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L9" t="n">
-        <v>690.384199457534</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M9" t="n">
-        <v>1207.227134123859</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N9" t="n">
-        <v>1724.070068790184</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O9" t="n">
-        <v>2058.694762117472</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P9" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q9" t="n">
         <v>2058.694762117472</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>693.3871153509499</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="C10" t="n">
-        <v>693.3871153509499</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="D10" t="n">
-        <v>533.8924706738599</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="E10" t="n">
-        <v>372.9816555421793</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F10" t="n">
-        <v>372.9816555421793</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G10" t="n">
-        <v>205.7312644677228</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H10" t="n">
-        <v>56.1238092731794</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4986,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1485.891263925851</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T10" t="n">
-        <v>1246.342524902554</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U10" t="n">
-        <v>1246.342524902554</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V10" t="n">
-        <v>972.4567798420755</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="W10" t="n">
-        <v>693.3871153509499</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="X10" t="n">
-        <v>693.3871153509499</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="Y10" t="n">
-        <v>693.3871153509499</v>
+        <v>639.6001036836846</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C11" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D11" t="n">
         <v>1585.618315208991</v>
@@ -5029,10 +5029,10 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F11" t="n">
-        <v>809.8415093489449</v>
+        <v>809.8415093489451</v>
       </c>
       <c r="G11" t="n">
-        <v>430.9101360764619</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H11" t="n">
         <v>149.7985495388648</v>
@@ -5044,7 +5044,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
         <v>1598.180070079655</v>
@@ -5068,13 +5068,13 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>4556.700720159924</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T11" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U11" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V11" t="n">
         <v>3816.98692220683</v>
@@ -5126,19 +5126,19 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>741.8628115185547</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M12" t="n">
-        <v>844.5103911440685</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N12" t="n">
-        <v>844.5103911440685</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O12" t="n">
-        <v>1548.467481689963</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P12" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q12" t="n">
         <v>2110.173374178493</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>479.54194401308</v>
+        <v>793.9196261408504</v>
       </c>
       <c r="C13" t="n">
-        <v>479.54194401308</v>
+        <v>652.6231645372517</v>
       </c>
       <c r="D13" t="n">
-        <v>349.8442101706748</v>
+        <v>652.6231645372517</v>
       </c>
       <c r="E13" t="n">
-        <v>218.7303058736792</v>
+        <v>571.8910724059662</v>
       </c>
       <c r="F13" t="n">
-        <v>218.7303058736792</v>
+        <v>437.0568573512422</v>
       </c>
       <c r="G13" t="n">
-        <v>93.2436976906228</v>
+        <v>299.6033771114704</v>
       </c>
       <c r="H13" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516119</v>
       </c>
       <c r="I13" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K13" t="n">
-        <v>320.2864794362206</v>
+        <v>320.2864794362204</v>
       </c>
       <c r="L13" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M13" t="n">
-        <v>927.8555407749237</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N13" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O13" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P13" t="n">
         <v>1761.542230672484</v>
@@ -5223,28 +5223,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R13" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S13" t="n">
-        <v>1644.20354800875</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T13" t="n">
-        <v>1434.451719820137</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="U13" t="n">
-        <v>1181.450483200946</v>
+        <v>1446.678118879473</v>
       </c>
       <c r="V13" t="n">
-        <v>937.3616489751524</v>
+        <v>1446.678118879473</v>
       </c>
       <c r="W13" t="n">
-        <v>688.0888953187117</v>
+        <v>1197.405365223033</v>
       </c>
       <c r="X13" t="n">
-        <v>479.54194401308</v>
+        <v>988.8584139174009</v>
       </c>
       <c r="Y13" t="n">
-        <v>479.54194401308</v>
+        <v>793.9196261408504</v>
       </c>
     </row>
     <row r="14">
@@ -5257,22 +5257,22 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C14" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D14" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E14" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F14" t="n">
-        <v>809.8415093489459</v>
+        <v>809.8415093489443</v>
       </c>
       <c r="G14" t="n">
-        <v>430.910136076463</v>
+        <v>430.9101360764613</v>
       </c>
       <c r="H14" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388641</v>
       </c>
       <c r="I14" t="n">
         <v>93.2436976906228</v>
@@ -5317,13 +5317,13 @@
         <v>3816.98692220683</v>
       </c>
       <c r="W14" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X14" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y14" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>754.331869609911</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M15" t="n">
-        <v>754.331869609911</v>
+        <v>1584.839892213121</v>
       </c>
       <c r="N15" t="n">
-        <v>1627.989961721529</v>
+        <v>1584.839892213121</v>
       </c>
       <c r="O15" t="n">
-        <v>2110.173374178493</v>
+        <v>1584.839892213121</v>
       </c>
       <c r="P15" t="n">
-        <v>2110.173374178493</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q15" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R15" t="n">
         <v>2139.732893541123</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>284.6031562365296</v>
+        <v>838.6631438684576</v>
       </c>
       <c r="C16" t="n">
-        <v>284.6031562365296</v>
+        <v>697.3666822648589</v>
       </c>
       <c r="D16" t="n">
-        <v>154.9054223941245</v>
+        <v>567.6689484224537</v>
       </c>
       <c r="E16" t="n">
-        <v>154.9054223941245</v>
+        <v>567.6689484224537</v>
       </c>
       <c r="F16" t="n">
-        <v>154.9054223941245</v>
+        <v>432.8347333677298</v>
       </c>
       <c r="G16" t="n">
-        <v>154.9054223941245</v>
+        <v>299.6033771114704</v>
       </c>
       <c r="H16" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516119</v>
       </c>
       <c r="I16" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K16" t="n">
-        <v>320.2864794362206</v>
+        <v>320.2864794362204</v>
       </c>
       <c r="L16" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M16" t="n">
-        <v>927.8555407749237</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N16" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O16" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P16" t="n">
         <v>1761.542230672484</v>
@@ -5460,28 +5460,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R16" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S16" t="n">
-        <v>1644.20354800875</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T16" t="n">
-        <v>1434.451719820137</v>
+        <v>1489.927527310051</v>
       </c>
       <c r="U16" t="n">
-        <v>1181.450483200946</v>
+        <v>1489.927527310051</v>
       </c>
       <c r="V16" t="n">
-        <v>937.3616489751524</v>
+        <v>1245.838693084258</v>
       </c>
       <c r="W16" t="n">
-        <v>688.0888953187117</v>
+        <v>996.5659394278172</v>
       </c>
       <c r="X16" t="n">
-        <v>479.54194401308</v>
+        <v>996.5659394278172</v>
       </c>
       <c r="Y16" t="n">
-        <v>284.6031562365296</v>
+        <v>996.5659394278172</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C17" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D17" t="n">
         <v>1585.618315208991</v>
@@ -5503,10 +5503,10 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F17" t="n">
-        <v>809.8415093489449</v>
+        <v>809.8415093489452</v>
       </c>
       <c r="G17" t="n">
-        <v>430.9101360764619</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H17" t="n">
         <v>149.7985495388648</v>
@@ -5518,7 +5518,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5545,22 +5545,22 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T17" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U17" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V17" t="n">
-        <v>3816.986922206829</v>
+        <v>3816.986922206831</v>
       </c>
       <c r="W17" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X17" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y17" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C18" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D18" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E18" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F18" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G18" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H18" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I18" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>2808.508546243273</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>2808.508546243273</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>3084.569701873628</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M18" t="n">
-        <v>3084.569701873628</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N18" t="n">
-        <v>3958.227793985246</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O18" t="n">
-        <v>4662.18488453114</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P18" t="n">
-        <v>4662.18488453114</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q18" t="n">
-        <v>4662.18488453114</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R18" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S18" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T18" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U18" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V18" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W18" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X18" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y18" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="19">
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>284.6031562365296</v>
+        <v>182.1761681670841</v>
       </c>
       <c r="C19" t="n">
-        <v>284.6031562365296</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D19" t="n">
-        <v>284.6031562365296</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>284.6031562365296</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>284.6031562365296</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>284.6031562365296</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
-        <v>164.7926118766711</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J19" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K19" t="n">
-        <v>320.2864794362206</v>
+        <v>320.2864794362204</v>
       </c>
       <c r="L19" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M19" t="n">
-        <v>927.8555407749237</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N19" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O19" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P19" t="n">
         <v>1761.542230672484</v>
@@ -5697,28 +5697,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R19" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S19" t="n">
-        <v>1644.20354800875</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T19" t="n">
-        <v>1434.451719820137</v>
+        <v>1489.927527310051</v>
       </c>
       <c r="U19" t="n">
-        <v>1181.450483200946</v>
+        <v>1236.92629069086</v>
       </c>
       <c r="V19" t="n">
-        <v>937.3616489751524</v>
+        <v>992.8374564650669</v>
       </c>
       <c r="W19" t="n">
-        <v>688.0888953187117</v>
+        <v>743.5647028086261</v>
       </c>
       <c r="X19" t="n">
-        <v>479.54194401308</v>
+        <v>535.0177515029942</v>
       </c>
       <c r="Y19" t="n">
-        <v>284.6031562365296</v>
+        <v>340.0789637264437</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2340.61301413329</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C20" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D20" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E20" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F20" t="n">
-        <v>809.8415093489448</v>
+        <v>809.8415093489452</v>
       </c>
       <c r="G20" t="n">
-        <v>430.9101360764619</v>
+        <v>430.9101360764622</v>
       </c>
       <c r="H20" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388649</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5794,10 +5794,10 @@
         <v>3463.023532176684</v>
       </c>
       <c r="X20" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y20" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M21" t="n">
-        <v>1597.308950304478</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N21" t="n">
-        <v>1597.308950304478</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>887.4500370879762</v>
+        <v>365.5313929851186</v>
       </c>
       <c r="C22" t="n">
-        <v>746.1535754843776</v>
+        <v>365.5313929851186</v>
       </c>
       <c r="D22" t="n">
-        <v>616.4558416419725</v>
+        <v>365.5313929851186</v>
       </c>
       <c r="E22" t="n">
-        <v>485.3419373449769</v>
+        <v>365.5313929851186</v>
       </c>
       <c r="F22" t="n">
-        <v>350.507722290253</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="G22" t="n">
-        <v>213.0542420504813</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
         <v>93.2436976906228</v>
@@ -5910,52 +5910,52 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049078</v>
       </c>
       <c r="K22" t="n">
-        <v>320.2864794362206</v>
+        <v>320.2864794362204</v>
       </c>
       <c r="L22" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M22" t="n">
-        <v>927.8555407749237</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N22" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O22" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P22" t="n">
         <v>1761.542230672484</v>
       </c>
       <c r="Q22" t="n">
-        <v>1856.27421278407</v>
+        <v>1856.274212784069</v>
       </c>
       <c r="R22" t="n">
-        <v>1856.27421278407</v>
+        <v>1856.274212784069</v>
       </c>
       <c r="S22" t="n">
-        <v>1842.359812895033</v>
+        <v>1856.274212784069</v>
       </c>
       <c r="T22" t="n">
-        <v>1842.359812895033</v>
+        <v>1673.282752128086</v>
       </c>
       <c r="U22" t="n">
-        <v>1589.358576275842</v>
+        <v>1420.281515508895</v>
       </c>
       <c r="V22" t="n">
-        <v>1345.269742050049</v>
+        <v>1176.192681283102</v>
       </c>
       <c r="W22" t="n">
-        <v>1095.996988393608</v>
+        <v>926.9199276266606</v>
       </c>
       <c r="X22" t="n">
-        <v>887.4500370879762</v>
+        <v>718.3729763210288</v>
       </c>
       <c r="Y22" t="n">
-        <v>887.4500370879762</v>
+        <v>523.4341885444783</v>
       </c>
     </row>
     <row r="23">
@@ -5971,16 +5971,16 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D23" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E23" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F23" t="n">
-        <v>809.8415093489448</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G23" t="n">
-        <v>430.9101360764619</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H23" t="n">
         <v>149.7985495388648</v>
@@ -5989,10 +5989,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K23" t="n">
-        <v>885.5886702674168</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L23" t="n">
         <v>1598.180070079655</v>
@@ -6004,7 +6004,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O23" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P23" t="n">
         <v>4300.467232046283</v>
@@ -6019,22 +6019,22 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T23" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U23" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V23" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W23" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X23" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y23" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6123,46 +6123,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>705.4317876121979</v>
+        <v>182.1761681670848</v>
       </c>
       <c r="C25" t="n">
-        <v>564.1353260085992</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>434.4375921661941</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>434.4375921661941</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>299.6033771114703</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>299.6033771114703</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K25" t="n">
-        <v>320.2864794362206</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L25" t="n">
         <v>609.3875320253558</v>
       </c>
       <c r="M25" t="n">
-        <v>927.8555407749237</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N25" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O25" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P25" t="n">
         <v>1761.542230672484</v>
@@ -6171,28 +6171,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R25" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S25" t="n">
-        <v>1800.798405294154</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T25" t="n">
-        <v>1660.341563419255</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U25" t="n">
-        <v>1407.340326800064</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V25" t="n">
-        <v>1163.251492574271</v>
+        <v>992.8374564650675</v>
       </c>
       <c r="W25" t="n">
-        <v>913.9787389178297</v>
+        <v>743.5647028086266</v>
       </c>
       <c r="X25" t="n">
-        <v>705.4317876121979</v>
+        <v>535.0177515029949</v>
       </c>
       <c r="Y25" t="n">
-        <v>705.4317876121979</v>
+        <v>340.0789637264444</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2340.61301413329</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C26" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D26" t="n">
-        <v>1585.61831520899</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E26" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F26" t="n">
-        <v>809.8415093489446</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G26" t="n">
-        <v>430.9101360764616</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H26" t="n">
         <v>149.7985495388648</v>
@@ -6226,10 +6226,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J26" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K26" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L26" t="n">
         <v>1598.180070079655</v>
@@ -6241,7 +6241,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O26" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P26" t="n">
         <v>4300.467232046283</v>
@@ -6262,16 +6262,16 @@
         <v>4137.027566035664</v>
       </c>
       <c r="V26" t="n">
-        <v>3816.986922206829</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W26" t="n">
-        <v>3463.023532176682</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X26" t="n">
         <v>3092.17704518032</v>
       </c>
       <c r="Y26" t="n">
-        <v>2721.037282963094</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N27" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>757.7523032455713</v>
+        <v>701.588806248371</v>
       </c>
       <c r="C28" t="n">
-        <v>616.4558416419726</v>
+        <v>701.588806248371</v>
       </c>
       <c r="D28" t="n">
-        <v>616.4558416419726</v>
+        <v>571.8910724059659</v>
       </c>
       <c r="E28" t="n">
-        <v>485.3419373449769</v>
+        <v>571.8910724059659</v>
       </c>
       <c r="F28" t="n">
-        <v>350.5077222902531</v>
+        <v>437.0568573512421</v>
       </c>
       <c r="G28" t="n">
-        <v>213.0542420504813</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="H28" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6408,28 +6408,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R28" t="n">
-        <v>1820.10688988879</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S28" t="n">
-        <v>1663.512032603385</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T28" t="n">
-        <v>1663.512032603385</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U28" t="n">
-        <v>1410.510795984194</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V28" t="n">
-        <v>1410.510795984194</v>
+        <v>937.361648975152</v>
       </c>
       <c r="W28" t="n">
-        <v>1161.238042327754</v>
+        <v>859.4916018077306</v>
       </c>
       <c r="X28" t="n">
-        <v>952.6910910221218</v>
+        <v>859.4916018077306</v>
       </c>
       <c r="Y28" t="n">
-        <v>757.7523032455713</v>
+        <v>859.4916018077306</v>
       </c>
     </row>
     <row r="29">
@@ -6490,19 +6490,19 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4556.700720159925</v>
+        <v>4556.700720159924</v>
       </c>
       <c r="T29" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U29" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V29" t="n">
         <v>3816.98692220683</v>
       </c>
       <c r="W29" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X29" t="n">
         <v>3092.17704518032</v>
@@ -6545,22 +6545,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M30" t="n">
-        <v>562.1177108836107</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N30" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q30" t="n">
         <v>2139.732893541123</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>536.2964545817654</v>
+        <v>491.8041838938517</v>
       </c>
       <c r="C31" t="n">
-        <v>437.0568573512421</v>
+        <v>350.5077222902531</v>
       </c>
       <c r="D31" t="n">
-        <v>437.0568573512421</v>
+        <v>350.5077222902531</v>
       </c>
       <c r="E31" t="n">
-        <v>437.0568573512421</v>
+        <v>350.5077222902531</v>
       </c>
       <c r="F31" t="n">
-        <v>437.0568573512421</v>
+        <v>350.5077222902531</v>
       </c>
       <c r="G31" t="n">
-        <v>299.6033771114703</v>
+        <v>213.0542420504813</v>
       </c>
       <c r="H31" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
@@ -6645,28 +6645,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R31" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S31" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T31" t="n">
-        <v>1591.046577105541</v>
+        <v>1799.555543036819</v>
       </c>
       <c r="U31" t="n">
-        <v>1591.046577105541</v>
+        <v>1546.554306417628</v>
       </c>
       <c r="V31" t="n">
-        <v>1346.957742879748</v>
+        <v>1302.465472191834</v>
       </c>
       <c r="W31" t="n">
-        <v>1097.684989223307</v>
+        <v>1053.192718535394</v>
       </c>
       <c r="X31" t="n">
-        <v>889.1380379176754</v>
+        <v>844.6457672297618</v>
       </c>
       <c r="Y31" t="n">
-        <v>694.1992501411249</v>
+        <v>649.7069794532113</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2340.61301413329</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C32" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D32" t="n">
-        <v>1585.61831520899</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E32" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F32" t="n">
         <v>809.8415093489451</v>
       </c>
       <c r="G32" t="n">
-        <v>430.9101360764621</v>
+        <v>430.9101360764622</v>
       </c>
       <c r="H32" t="n">
         <v>149.7985495388648</v>
@@ -6730,13 +6730,13 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T32" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U32" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V32" t="n">
-        <v>3816.986922206829</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W32" t="n">
         <v>3463.023532176683</v>
@@ -6785,19 +6785,19 @@
         <v>549.0499539559215</v>
       </c>
       <c r="L33" t="n">
-        <v>874.0699105066985</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M33" t="n">
-        <v>874.0699105066985</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N33" t="n">
-        <v>874.0699105066985</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O33" t="n">
-        <v>1578.027001052593</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q33" t="n">
         <v>2139.732893541123</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>354.0553358300238</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="C34" t="n">
-        <v>354.0553358300238</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="D34" t="n">
-        <v>224.3576019876185</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="E34" t="n">
-        <v>93.2436976906228</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="F34" t="n">
-        <v>93.2436976906228</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="G34" t="n">
-        <v>93.2436976906228</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="H34" t="n">
-        <v>93.2436976906228</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
@@ -6861,13 +6861,13 @@
         <v>136.5301994049079</v>
       </c>
       <c r="K34" t="n">
-        <v>320.2864794362204</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L34" t="n">
-        <v>609.3875320253555</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M34" t="n">
-        <v>927.8555407749234</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N34" t="n">
         <v>1237.898275478248</v>
@@ -6882,28 +6882,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R34" t="n">
-        <v>1856.27421278407</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S34" t="n">
-        <v>1856.27421278407</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T34" t="n">
-        <v>1646.522384595456</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U34" t="n">
-        <v>1393.521147976265</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V34" t="n">
-        <v>1149.432313750472</v>
+        <v>937.361648975152</v>
       </c>
       <c r="W34" t="n">
-        <v>900.159560094031</v>
+        <v>688.0888953187111</v>
       </c>
       <c r="X34" t="n">
-        <v>691.6126087883991</v>
+        <v>479.5419440130794</v>
       </c>
       <c r="Y34" t="n">
-        <v>511.9581313893834</v>
+        <v>284.6031562365289</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C35" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D35" t="n">
         <v>1585.618315208991</v>
@@ -6925,22 +6925,22 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F35" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489452</v>
       </c>
       <c r="G35" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764619</v>
       </c>
       <c r="H35" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388647</v>
       </c>
       <c r="I35" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K35" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -6961,28 +6961,28 @@
         <v>4621.628238841575</v>
       </c>
       <c r="R35" t="n">
-        <v>4662.18488453114</v>
+        <v>4662.184884531139</v>
       </c>
       <c r="S35" t="n">
-        <v>4556.700720159925</v>
+        <v>4556.700720159924</v>
       </c>
       <c r="T35" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U35" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V35" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W35" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176682</v>
       </c>
       <c r="X35" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y35" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="36">
@@ -7007,34 +7007,34 @@
         <v>291.7296147203278</v>
       </c>
       <c r="G36" t="n">
-        <v>184.7395020346666</v>
+        <v>184.7395020346665</v>
       </c>
       <c r="H36" t="n">
         <v>113.9922890703826</v>
       </c>
       <c r="I36" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L36" t="n">
-        <v>754.331869609911</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M36" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N36" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q36" t="n">
         <v>2139.732893541123</v>
@@ -7071,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>973.9991721489654</v>
+        <v>234.5401592942214</v>
       </c>
       <c r="C37" t="n">
-        <v>832.7027105453667</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="D37" t="n">
-        <v>703.0049767029616</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="E37" t="n">
-        <v>571.8910724059659</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="F37" t="n">
-        <v>437.0568573512421</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="G37" t="n">
-        <v>299.6033771114703</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="H37" t="n">
-        <v>179.7928327516118</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="I37" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062278</v>
       </c>
       <c r="J37" t="n">
         <v>136.5301994049079</v>
       </c>
       <c r="K37" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L37" t="n">
         <v>609.3875320253558</v>
       </c>
       <c r="M37" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749237</v>
       </c>
       <c r="N37" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O37" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P37" t="n">
         <v>1761.542230672484</v>
@@ -7122,25 +7122,25 @@
         <v>1856.27421278407</v>
       </c>
       <c r="S37" t="n">
-        <v>1699.679355498665</v>
+        <v>1752.043346625801</v>
       </c>
       <c r="T37" t="n">
-        <v>1699.679355498665</v>
+        <v>1542.291518437188</v>
       </c>
       <c r="U37" t="n">
-        <v>1535.387706790507</v>
+        <v>1289.290281817997</v>
       </c>
       <c r="V37" t="n">
-        <v>1535.387706790507</v>
+        <v>1045.201447592204</v>
       </c>
       <c r="W37" t="n">
-        <v>1535.387706790507</v>
+        <v>795.9286939357631</v>
       </c>
       <c r="X37" t="n">
-        <v>1326.840755484875</v>
+        <v>587.3817426301314</v>
       </c>
       <c r="Y37" t="n">
-        <v>1131.901967708325</v>
+        <v>392.4429548535809</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1201.075010560572</v>
       </c>
       <c r="F38" t="n">
-        <v>809.8415093489448</v>
+        <v>809.8415093489443</v>
       </c>
       <c r="G38" t="n">
-        <v>430.9101360764616</v>
+        <v>430.9101360764613</v>
       </c>
       <c r="H38" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388641</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7189,7 +7189,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O38" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P38" t="n">
         <v>4300.467232046283</v>
@@ -7204,13 +7204,13 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T38" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U38" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V38" t="n">
-        <v>3816.986922206829</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W38" t="n">
         <v>3463.023532176683</v>
@@ -7256,25 +7256,25 @@
         <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M39" t="n">
-        <v>1129.033635947823</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N39" t="n">
-        <v>1129.033635947823</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O39" t="n">
-        <v>1832.990726493717</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>832.7027105453667</v>
+        <v>496.6452972821144</v>
       </c>
       <c r="C40" t="n">
-        <v>832.7027105453667</v>
+        <v>496.6452972821144</v>
       </c>
       <c r="D40" t="n">
-        <v>703.0049767029616</v>
+        <v>496.6452972821144</v>
       </c>
       <c r="E40" t="n">
-        <v>571.8910724059659</v>
+        <v>365.5313929851186</v>
       </c>
       <c r="F40" t="n">
-        <v>437.0568573512421</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="G40" t="n">
-        <v>299.6033771114703</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7335,13 +7335,13 @@
         <v>136.5301994049079</v>
       </c>
       <c r="K40" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362204</v>
       </c>
       <c r="L40" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M40" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N40" t="n">
         <v>1237.898275478248</v>
@@ -7356,28 +7356,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R40" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S40" t="n">
-        <v>1800.798405294154</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T40" t="n">
-        <v>1591.046577105541</v>
+        <v>1489.927527310051</v>
       </c>
       <c r="U40" t="n">
-        <v>1338.04534048635</v>
+        <v>1236.92629069086</v>
       </c>
       <c r="V40" t="n">
-        <v>1338.04534048635</v>
+        <v>992.8374564650669</v>
       </c>
       <c r="W40" t="n">
-        <v>1185.544293881277</v>
+        <v>863.0950441471059</v>
       </c>
       <c r="X40" t="n">
-        <v>1185.544293881277</v>
+        <v>654.548092841474</v>
       </c>
       <c r="Y40" t="n">
-        <v>990.6055061047263</v>
+        <v>654.548092841474</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2502.881125286859</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C41" t="n">
-        <v>2092.756534600129</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D41" t="n">
-        <v>1688.29260469319</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E41" t="n">
-        <v>1273.952389210086</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F41" t="n">
-        <v>852.921977163774</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G41" t="n">
-        <v>444.1936930566062</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H41" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
         <v>1598.180070079655</v>
@@ -7438,25 +7438,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T41" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U41" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V41" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W41" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X41" t="n">
-        <v>3314.038978003258</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y41" t="n">
-        <v>2913.102304951348</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C42" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D42" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E42" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F42" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G42" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H42" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I42" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>2615.69568868064</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>2615.69568868064</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>3276.783860599928</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M42" t="n">
-        <v>4119.760941294495</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N42" t="n">
-        <v>4119.760941294495</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O42" t="n">
-        <v>4282.780900484527</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P42" t="n">
-        <v>4282.780900484527</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q42" t="n">
-        <v>4632.62536516851</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R42" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S42" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T42" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U42" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V42" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W42" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X42" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y42" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4222.119838211426</v>
+        <v>404.0948772022105</v>
       </c>
       <c r="C43" t="n">
-        <v>4051.026465773143</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="D43" t="n">
-        <v>3891.531821096053</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="E43" t="n">
-        <v>3730.621005964372</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="F43" t="n">
-        <v>3565.989880074963</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G43" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H43" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K43" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L43" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M43" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N43" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O43" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q43" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>4662.18488453114</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U43" t="n">
-        <v>4662.18488453114</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V43" t="n">
-        <v>4662.18488453114</v>
+        <v>1109.208110227697</v>
       </c>
       <c r="W43" t="n">
-        <v>4662.18488453114</v>
+        <v>830.1384457365714</v>
       </c>
       <c r="X43" t="n">
-        <v>4634.555243216706</v>
+        <v>591.7945835962548</v>
       </c>
       <c r="Y43" t="n">
-        <v>4409.819544605471</v>
+        <v>591.7945835962548</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2144.727460069145</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C44" t="n">
-        <v>1734.602869382415</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D44" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E44" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F44" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G44" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H44" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
@@ -7675,25 +7675,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T44" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U44" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V44" t="n">
-        <v>3740.289011481424</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W44" t="n">
-        <v>3356.528710616592</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X44" t="n">
-        <v>2955.885312785545</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y44" t="n">
-        <v>2554.948639733635</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>2615.69568868064</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>3071.501944945938</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>3115.250713290679</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M45" t="n">
-        <v>3958.227793985246</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N45" t="n">
-        <v>3958.227793985246</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O45" t="n">
-        <v>4662.18488453114</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="P45" t="n">
-        <v>4662.18488453114</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q45" t="n">
-        <v>4662.18488453114</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R45" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>589.8790111499956</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C46" t="n">
-        <v>418.7856387117121</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D46" t="n">
-        <v>418.7856387117121</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E46" t="n">
-        <v>257.8748235800315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F46" t="n">
         <v>93.2436976906228</v>
@@ -7830,28 +7830,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T46" t="n">
-        <v>1285.112563609151</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U46" t="n">
-        <v>1002.314416155275</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V46" t="n">
-        <v>1002.314416155275</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W46" t="n">
-        <v>1002.314416155275</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X46" t="n">
-        <v>1002.314416155275</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y46" t="n">
-        <v>777.5787175440399</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>174.5554154391698</v>
+        <v>516.2162236769913</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>310.2649475726535</v>
       </c>
       <c r="M2" t="n">
-        <v>520.3700584608195</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>519.9921247603933</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>520.2696096295571</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>520.7291972846583</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,28 +8060,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>482.9056167883894</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>483.194357814623</v>
+        <v>483.1943578146232</v>
       </c>
       <c r="M3" t="n">
-        <v>484.6441177421914</v>
+        <v>272.6279046888741</v>
       </c>
       <c r="N3" t="n">
-        <v>238.3989139779136</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>484.8313130037742</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>481.3394690065779</v>
       </c>
       <c r="Q3" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8224,22 +8224,22 @@
         <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>535.0653799235644</v>
       </c>
       <c r="P5" t="n">
-        <v>296.9001458002834</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,28 +8297,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>500.8626362276487</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
         <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>72.04887768380563</v>
       </c>
       <c r="N6" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
-        <v>593.882383535937</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O8" t="n">
-        <v>615.2533459958087</v>
+        <v>494.099071146226</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
         <v>56.11452381084905</v>
@@ -8546,13 +8546,13 @@
         <v>575.2569637637755</v>
       </c>
       <c r="O9" t="n">
-        <v>395.7562197346342</v>
+        <v>175.4852242574859</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
         <v>88.85829947169823</v>
@@ -8692,7 +8692,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>632.7318453389137</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
         <v>815.2746908024792</v>
@@ -8774,22 +8774,22 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M12" t="n">
-        <v>161.2487076025728</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
         <v>88.85829947169823</v>
@@ -8947,10 +8947,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>544.8054309767314</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>261.3793689866603</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
-        <v>632.7318453389137</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L17" t="n">
         <v>815.2746908024792</v>
@@ -9187,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,28 +9245,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>334.9641759627225</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M18" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K20" t="n">
         <v>632.7318453389136</v>
@@ -9479,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>605.6544519663084</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
         <v>632.7318453389136</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10193,25 +10193,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
-        <v>531.1743980747688</v>
+        <v>75.79096100447751</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10433,22 +10433,22 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>384.4175102257753</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>57.56428373841742</v>
+        <v>75.79096100447751</v>
       </c>
       <c r="N33" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
         <v>632.7318453389136</v>
@@ -10609,7 +10609,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920609</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,25 +10667,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>745.8914891781321</v>
+        <v>75.79096100447751</v>
       </c>
       <c r="N36" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10904,28 +10904,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P39" t="n">
-        <v>364.1002077779613</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11083,7 +11083,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,25 +11138,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>222.4181044444766</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
         <v>410.0708656603775</v>
@@ -11314,13 +11314,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>628.1510783507342</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>100.3051989065467</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>204.7378408708281</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>156.3237676037659</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C13" t="n">
-        <v>139.8834969875626</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>49.87799404405312</v>
       </c>
       <c r="F13" t="n">
-        <v>133.4858729041766</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>11.84720333614817</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>85.68364371037907</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>54.92104941501641</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>156.3237676037659</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>139.8834969875626</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>129.8027652540257</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F16" t="n">
-        <v>133.4858729041766</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>136.078945437374</v>
+        <v>4.179902743677332</v>
       </c>
       <c r="H16" t="n">
-        <v>57.56733145979324</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>85.68364371037907</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>54.92104941501641</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="17">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>156.3237676037659</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>139.8834969875626</v>
+        <v>51.84035121586605</v>
       </c>
       <c r="D19" t="n">
         <v>128.4007565039811</v>
       </c>
       <c r="E19" t="n">
-        <v>129.8027652540257</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F19" t="n">
-        <v>133.4858729041766</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G19" t="n">
-        <v>136.078945437374</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I19" t="n">
-        <v>14.85021866619124</v>
+        <v>85.68364371037917</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>54.92104941501641</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>156.3237676037659</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>139.8834969875628</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>128.4007565039812</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I22" t="n">
-        <v>85.68364371037907</v>
+        <v>85.6836437103792</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>54.92104941501631</v>
+        <v>54.92104941501644</v>
       </c>
       <c r="S22" t="n">
-        <v>141.2536528224038</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T22" t="n">
-        <v>207.6543099067269</v>
+        <v>26.4927638573036</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>156.3237676037659</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>51.84035121586527</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E25" t="n">
         <v>129.8027652540257</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G25" t="n">
         <v>136.078945437374</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S25" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>68.60203645057615</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D28" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>85.68364371037912</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>19.11539974868984</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>169.6886794241292</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="29">
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>41.6362957293446</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>128.4007565039811</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S31" t="n">
         <v>155.0289087125508</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>151.5028268569485</v>
       </c>
       <c r="U31" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>139.8834969875627</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F34" t="n">
         <v>133.4858729041767</v>
       </c>
       <c r="G34" t="n">
-        <v>136.0789454373741</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H34" t="n">
-        <v>118.61243891626</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I34" t="n">
-        <v>85.68364371037917</v>
+        <v>52.56154735369804</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>54.92104941501641</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>155.0289087125509</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>15.1314672737594</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>85.68364371037907</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>54.92104941501636</v>
+        <v>54.92104941501632</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>51.84035121586473</v>
       </c>
       <c r="T37" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>87.82249203192319</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>139.8834969875627</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>85.68364371037916</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>54.9210494150164</v>
       </c>
       <c r="S40" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>95.80398998085363</v>
+        <v>118.335037925095</v>
       </c>
       <c r="X40" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="41">
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>45.8471620423332</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>27.21765816114089</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,22 +25839,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>208.6070786176241</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V44" t="n">
-        <v>42.06483528720082</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
         <v>165.577887163712</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>171.9463628180093</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>609266.6205461536</v>
+        <v>609266.6205461535</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>609266.6205461535</v>
+        <v>609266.6205461534</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>609266.6205461536</v>
+        <v>609266.6205461535</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>609266.6205461536</v>
+        <v>609266.6205461535</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>609266.6205461535</v>
+        <v>609266.6205461536</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>609266.6205461535</v>
+        <v>609266.6205461536</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>609266.6205461534</v>
+        <v>609266.6205461535</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>602664.8542200904</v>
+        <v>602664.8542200906</v>
       </c>
       <c r="C2" t="n">
-        <v>602664.8542200904</v>
+        <v>602664.8542200907</v>
       </c>
       <c r="D2" t="n">
         <v>602664.8542200904</v>
       </c>
       <c r="E2" t="n">
+        <v>584042.9209415638</v>
+      </c>
+      <c r="F2" t="n">
+        <v>584042.920941564</v>
+      </c>
+      <c r="G2" t="n">
+        <v>584042.920941564</v>
+      </c>
+      <c r="H2" t="n">
+        <v>584042.920941564</v>
+      </c>
+      <c r="I2" t="n">
         <v>584042.9209415641</v>
       </c>
-      <c r="F2" t="n">
-        <v>584042.9209415641</v>
-      </c>
-      <c r="G2" t="n">
-        <v>584042.9209415643</v>
-      </c>
-      <c r="H2" t="n">
-        <v>584042.9209415638</v>
-      </c>
-      <c r="I2" t="n">
-        <v>584042.920941564</v>
-      </c>
       <c r="J2" t="n">
-        <v>584042.920941564</v>
+        <v>584042.9209415639</v>
       </c>
       <c r="K2" t="n">
         <v>584042.920941564</v>
       </c>
       <c r="L2" t="n">
-        <v>584042.9209415639</v>
+        <v>584042.9209415645</v>
       </c>
       <c r="M2" t="n">
-        <v>584042.9209415639</v>
+        <v>584042.9209415643</v>
       </c>
       <c r="N2" t="n">
-        <v>584042.9209415643</v>
+        <v>584042.9209415636</v>
       </c>
       <c r="O2" t="n">
-        <v>535850.0349399234</v>
+        <v>535850.0349399233</v>
       </c>
       <c r="P2" t="n">
-        <v>535850.0349399233</v>
+        <v>535850.0349399236</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>143124.2752108467</v>
+        <v>143124.2752108468</v>
       </c>
       <c r="C3" t="n">
-        <v>30686.46086668806</v>
+        <v>30686.46086668798</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215728.9162805136</v>
+        <v>215728.9162805135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>6.536993168992922e-11</v>
       </c>
       <c r="J3" t="n">
         <v>135342.0294691538</v>
       </c>
       <c r="K3" t="n">
-        <v>24445.77426110944</v>
+        <v>24445.77426110939</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>160358.4505006828</v>
+        <v>160358.4505006826</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,37 +26426,37 @@
         <v>213059.5462795911</v>
       </c>
       <c r="E4" t="n">
-        <v>118911.6321885296</v>
+        <v>118911.6321885295</v>
       </c>
       <c r="F4" t="n">
-        <v>118911.6321885296</v>
+        <v>118911.6321885295</v>
       </c>
       <c r="G4" t="n">
-        <v>118911.6321885296</v>
+        <v>118911.6321885295</v>
       </c>
       <c r="H4" t="n">
-        <v>118911.6321885296</v>
+        <v>118911.6321885295</v>
       </c>
       <c r="I4" t="n">
         <v>118911.6321885295</v>
       </c>
       <c r="J4" t="n">
-        <v>118911.6321885296</v>
+        <v>118911.6321885295</v>
       </c>
       <c r="K4" t="n">
         <v>118911.6321885296</v>
       </c>
       <c r="L4" t="n">
+        <v>118911.6321885296</v>
+      </c>
+      <c r="M4" t="n">
+        <v>118911.6321885296</v>
+      </c>
+      <c r="N4" t="n">
         <v>118911.6321885295</v>
       </c>
-      <c r="M4" t="n">
-        <v>118911.6321885295</v>
-      </c>
-      <c r="N4" t="n">
-        <v>118911.6321885296</v>
-      </c>
       <c r="O4" t="n">
-        <v>89101.60277166062</v>
+        <v>89101.60277166063</v>
       </c>
       <c r="P4" t="n">
         <v>89101.60277166063</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59594.05390742945</v>
+        <v>59594.05390742946</v>
       </c>
       <c r="C5" t="n">
         <v>65369.06507849755</v>
@@ -26478,19 +26478,19 @@
         <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
-        <v>73345.15677686484</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="F5" t="n">
-        <v>73345.15677686484</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="G5" t="n">
-        <v>73345.15677686484</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="H5" t="n">
-        <v>73345.15677686484</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="I5" t="n">
-        <v>73345.15677686484</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="J5" t="n">
         <v>73345.15677686482</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>168170.5477762483</v>
+        <v>168170.5477762484</v>
       </c>
       <c r="C6" t="n">
-        <v>293549.7819953138</v>
+        <v>293549.7819953141</v>
       </c>
       <c r="D6" t="n">
         <v>324236.2428620018</v>
       </c>
       <c r="E6" t="n">
-        <v>176057.2156956561</v>
+        <v>176006.8861462545</v>
       </c>
       <c r="F6" t="n">
-        <v>391786.1319761697</v>
+        <v>391735.8024267683</v>
       </c>
       <c r="G6" t="n">
-        <v>391786.1319761698</v>
+        <v>391735.8024267683</v>
       </c>
       <c r="H6" t="n">
-        <v>391786.1319761694</v>
+        <v>391735.8024267683</v>
       </c>
       <c r="I6" t="n">
-        <v>391786.1319761697</v>
+        <v>391735.8024267682</v>
       </c>
       <c r="J6" t="n">
-        <v>256444.1025070158</v>
+        <v>256393.7729576143</v>
       </c>
       <c r="K6" t="n">
-        <v>367340.3577150602</v>
+        <v>367290.0281656588</v>
       </c>
       <c r="L6" t="n">
-        <v>391786.1319761697</v>
+        <v>391735.8024267686</v>
       </c>
       <c r="M6" t="n">
-        <v>231427.6814754868</v>
+        <v>231377.3519260858</v>
       </c>
       <c r="N6" t="n">
-        <v>391786.1319761699</v>
+        <v>391735.8024267678</v>
       </c>
       <c r="O6" t="n">
-        <v>375883.2219233895</v>
+        <v>375702.6413307402</v>
       </c>
       <c r="P6" t="n">
-        <v>375883.2219233894</v>
+        <v>375702.6413307405</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F2" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G2" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H2" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="I2" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J2" t="n">
         <v>29.49894172633799</v>
@@ -26715,13 +26715,13 @@
         <v>29.49894172633799</v>
       </c>
       <c r="L2" t="n">
+        <v>29.498941726338</v>
+      </c>
+      <c r="M2" t="n">
+        <v>29.49894172633802</v>
+      </c>
+      <c r="N2" t="n">
         <v>29.49894172633794</v>
-      </c>
-      <c r="M2" t="n">
-        <v>29.49894172633799</v>
-      </c>
-      <c r="N2" t="n">
-        <v>29.49894172633799</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427.079834003774</v>
+        <v>427.0798340037742</v>
       </c>
       <c r="C4" t="n">
         <v>522.0635703700256</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26928,10 +26928,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>8.171241461241152e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427.079834003774</v>
+        <v>427.0798340037742</v>
       </c>
       <c r="C4" t="n">
-        <v>94.98373636625161</v>
+        <v>94.98373636625138</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.079834003774</v>
+        <v>427.0798340037742</v>
       </c>
       <c r="K4" t="n">
-        <v>94.98373636625161</v>
+        <v>94.98373636625138</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.4826507627595</v>
+        <v>643.4826507627591</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27165,10 +27165,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8.171241461241152e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.079834003774</v>
+        <v>427.0798340037742</v>
       </c>
       <c r="K4" t="n">
-        <v>94.98373636625161</v>
+        <v>94.98373636625138</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
       </c>
-      <c r="E2" t="n">
-        <v>400</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>283.0256696494326</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>270.0527232914065</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
@@ -27447,7 +27447,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -27466,19 +27466,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>64.24154521141966</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
         <v>105.9202115588047</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27517,13 +27517,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>51.11826079444775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>126.9450269688242</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>73.57996111612763</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,19 +27618,19 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
-        <v>132.046184193823</v>
+        <v>295.0067463760538</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -27776,25 +27776,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>80.95426689940152</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>8.893130557884689</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>372.1079055502498</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>127.9614749460216</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -27909,7 +27909,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
@@ -27918,10 +27918,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -28016,13 +28016,13 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>100.9674490295755</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>50.54991588006453</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
         <v>235.9604235189134</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="K13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="L13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="M13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="N13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="O13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="P13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="R13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="S13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="K16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="L16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="M16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="N16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="O16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="P16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="R16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="S16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C17" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D17" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E17" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F17" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G17" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H17" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I17" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T17" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U17" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V17" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W17" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X17" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y17" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="K19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="L19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="M19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="N19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="O19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="P19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="R19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="S19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="C20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="D20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="E20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="F20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="G20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="H20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="I20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="T20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="U20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="V20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="W20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="X20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="Y20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633791</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="C22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="D22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="E22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="F22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="G22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="H22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="I22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="J22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="K22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="L22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="M22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="N22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="O22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="P22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="R22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="S22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="T22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="U22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="V22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="W22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="X22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633791</v>
       </c>
       <c r="Y22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633791</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F23" t="n">
-        <v>29.49894172633697</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="L25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="O25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="P25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="R25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="S25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="26">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C32" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D32" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E32" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F32" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G32" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H32" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I32" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T32" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U32" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V32" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W32" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X32" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y32" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C34" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D34" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E34" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F34" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G34" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H34" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I34" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J34" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K34" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L34" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M34" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N34" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O34" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P34" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R34" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S34" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T34" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U34" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V34" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W34" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X34" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y34" t="n">
-        <v>29.49894172633794</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="C35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="D35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="E35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="F35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="G35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="H35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="I35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="T35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="U35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="V35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="W35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="X35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="Y35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633802</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="C37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="D37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="E37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="F37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="G37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="H37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="I37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="J37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="K37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="L37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="M37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="N37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="O37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="P37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="R37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="S37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="T37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="U37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="V37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="W37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="X37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633802</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="K40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="L40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="M40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="N40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="O40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="P40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="R40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="S40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="41">
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>85.41902576595268</v>
+        <v>427.0798340037742</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>214.7795495098087</v>
       </c>
       <c r="M2" t="n">
-        <v>427.079834003774</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>427.079834003774</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>427.079834003774</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>427.0798340037742</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,28 +34780,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>427.079834003774</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>427.079834003774</v>
+        <v>427.0798340037742</v>
       </c>
       <c r="M3" t="n">
-        <v>427.079834003774</v>
+        <v>215.0636209504567</v>
       </c>
       <c r="N3" t="n">
-        <v>185.2055205841636</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>427.0798340037742</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>427.0798340037742</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34944,22 +34944,22 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>441.8756042977812</v>
       </c>
       <c r="P5" t="n">
-        <v>203.2507825193993</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,28 +35017,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>445.0368534430334</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>14.48459394538821</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
+        <v>400.9092955204429</v>
+      </c>
+      <c r="P8" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N8" t="n">
-        <v>500.9700927793177</v>
-      </c>
-      <c r="O8" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35266,13 +35266,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O9" t="n">
-        <v>338.0047407346341</v>
+        <v>117.7337452574859</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
         <v>29.85810036629282</v>
@@ -35412,7 +35412,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
         <v>719.7892927396343</v>
@@ -35494,22 +35494,22 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M12" t="n">
-        <v>103.6844238641553</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
         <v>29.85810036629282</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>43.72373910533855</v>
+        <v>43.72373910533847</v>
       </c>
       <c r="K13" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L13" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M13" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N13" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O13" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P13" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754413</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.68887081978332</v>
+        <v>95.68887081978322</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35667,10 +35667,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>487.0539519767314</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>207.1197339838565</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>43.72373910533855</v>
+        <v>43.72373910533847</v>
       </c>
       <c r="K16" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L16" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M16" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N16" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O16" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P16" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754413</v>
       </c>
       <c r="Q16" t="n">
-        <v>95.68887081978332</v>
+        <v>95.68887081978322</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L17" t="n">
         <v>719.7892927396343</v>
@@ -35907,7 +35907,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,28 +35965,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>278.8496521518734</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>43.72373910533855</v>
+        <v>43.72373910533847</v>
       </c>
       <c r="K19" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L19" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M19" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N19" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O19" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P19" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754413</v>
       </c>
       <c r="Q19" t="n">
-        <v>95.68887081978332</v>
+        <v>95.68887081978322</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K20" t="n">
         <v>543.5954556656965</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>43.72373910533855</v>
+        <v>43.72373910533844</v>
       </c>
       <c r="K22" t="n">
-        <v>185.6124040720329</v>
+        <v>185.6124040720328</v>
       </c>
       <c r="L22" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M22" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N22" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O22" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P22" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754413</v>
       </c>
       <c r="Q22" t="n">
-        <v>95.68887081978332</v>
+        <v>95.68887081978319</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K23" t="n">
         <v>543.5954556656965</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>43.72373910533855</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K25" t="n">
         <v>185.6124040720329</v>
@@ -36524,19 +36524,19 @@
         <v>292.0212652415507</v>
       </c>
       <c r="M25" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N25" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O25" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P25" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q25" t="n">
-        <v>95.68887081978332</v>
+        <v>95.68887081978328</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M30" t="n">
-        <v>473.6101143363514</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37153,22 +37153,22 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>328.3029864149263</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>43.72373910533847</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K34" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L34" t="n">
-        <v>292.0212652415506</v>
+        <v>292.0212652415507</v>
       </c>
       <c r="M34" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N34" t="n">
-        <v>313.1744794983079</v>
+        <v>313.174479498308</v>
       </c>
       <c r="O34" t="n">
-        <v>291.6813763995441</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P34" t="n">
-        <v>237.2519116754413</v>
+        <v>237.2519116754414</v>
       </c>
       <c r="Q34" t="n">
-        <v>95.68887081978322</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
         <v>543.5954556656965</v>
@@ -37329,7 +37329,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733737</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>688.3272054397147</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533855</v>
       </c>
       <c r="K37" t="n">
         <v>185.6124040720329</v>
@@ -37472,19 +37472,19 @@
         <v>292.0212652415507</v>
       </c>
       <c r="M37" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N37" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O37" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P37" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q37" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978332</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P39" t="n">
-        <v>309.8405727751575</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533847</v>
       </c>
       <c r="K40" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L40" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M40" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N40" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O40" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P40" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754413</v>
       </c>
       <c r="Q40" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978323</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
@@ -37803,7 +37803,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M42" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>164.6666254444766</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
         <v>353.3782471555388</v>
@@ -38034,13 +38034,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>534.5017150698501</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>44.19067509569769</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>146.9863618708281</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
